--- a/oosterhaar_zorg.xlsx
+++ b/oosterhaar_zorg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User111\Desktop\Zorgprestaties Apothekersgroep Groningen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58EEAEAE-FDB5-4B4F-9D0F-0C69DCFE750A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E4CBC1C-9951-4992-8876-12C6F64CEC7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0B6F8097-3A45-4FA1-AEB7-20F15E9F0CA7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{E532F1A2-29F5-4339-9000-1144D1784C92}"/>
   </bookViews>
   <sheets>
     <sheet name="Opdracht" sheetId="1" r:id="rId1"/>
@@ -442,7 +442,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90916CE2-EA13-498C-8DC7-DA17F142E463}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8D6937-787B-40EC-B5A1-65E74316D14F}">
   <dimension ref="A1:D424"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
